--- a/MainTop/09.09.2024/имена.xlsx
+++ b/MainTop/09.09.2024/имена.xlsx
@@ -398,8 +398,8 @@
   </sheetPr>
   <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N9" activeCellId="0" sqref="N9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R86" activeCellId="0" sqref="R86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/MainTop/09.09.2024/имена.xlsx
+++ b/MainTop/09.09.2024/имена.xlsx
@@ -396,15 +396,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L80"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R86" activeCellId="0" sqref="R86"/>
+      <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="9.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.56"/>
@@ -3327,16 +3327,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I80" s="0" t="n">
-        <f aca="false">SUM(I2:I79)</f>
-        <v>232</v>
-      </c>
-      <c r="K80" s="0" t="n">
-        <f aca="false">SUM(K2:K79)</f>
-        <v>220</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
